--- a/worklist_template_50_Conditions.xlsx
+++ b/worklist_template_50_Conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c1829094dbd390/Desktop/Kelly_Lab/.venv/worklist_git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivint\OneDrive\Desktop\Kelly_Lab\.venv\worklist_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{F95D3806-4DD7-446B-9B13-42605BB778D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C67AB4-AA10-4C28-B70F-969D98DB97FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFACA92E-CE46-42F7-9654-DDBAF66EA9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Notebook code:</t>
   </si>
@@ -186,6 +186,12 @@
   <si>
     <t>Force even blocks?
 (Doesn't use all wells in order to create blocks of the same size.)</t>
+  </si>
+  <si>
+    <t>Frequency of QC blocks:</t>
+  </si>
+  <si>
+    <t>QC per group</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -488,6 +494,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,7 +838,7 @@
   <dimension ref="A1:AV63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="AK61" sqref="AK61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -3623,8 +3635,10 @@
       <c r="AE57" s="10"/>
       <c r="AH57" s="34"/>
       <c r="AI57" s="37"/>
-      <c r="AK57" s="23"/>
-      <c r="AL57" s="24"/>
+      <c r="AK57" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL57" s="44"/>
       <c r="AM57" s="23"/>
       <c r="AN57" s="23"/>
     </row>
@@ -3662,8 +3676,10 @@
       </c>
       <c r="AI58" s="40"/>
       <c r="AJ58" s="23"/>
-      <c r="AK58" s="23"/>
-      <c r="AL58" s="24"/>
+      <c r="AK58" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL58" s="44"/>
       <c r="AM58" s="23"/>
       <c r="AN58" s="23"/>
     </row>
@@ -3698,14 +3714,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="8">
+    <mergeCell ref="AH58:AH60"/>
+    <mergeCell ref="AI58:AI60"/>
     <mergeCell ref="AU3:AV14"/>
     <mergeCell ref="AM53:AN55"/>
     <mergeCell ref="AH55:AH57"/>
     <mergeCell ref="AI55:AI57"/>
     <mergeCell ref="AK55:AK56"/>
     <mergeCell ref="AL55:AL56"/>
-    <mergeCell ref="AH58:AH60"/>
-    <mergeCell ref="AI58:AI60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
